--- a/CROX_Model.xlsx
+++ b/CROX_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0553BA2D-296C-4C75-9E49-5419837A997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CDB87-FB96-4D1C-AA93-E35500479342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="1380" windowWidth="21495" windowHeight="11895" xr2:uid="{07357E3F-CFA6-40CB-A646-8493286714AD}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{07357E3F-CFA6-40CB-A646-8493286714AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -824,21 +824,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0343D7-8665-450D-BA62-EBBD45696BCC}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -878,7 +878,7 @@
         <v>8273.7383499999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>82</v>
       </c>
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -927,28 +927,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13600B2B-6306-4A2E-94B5-6F6C4A6037E6}">
   <dimension ref="B2:AW63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
+      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="26" width="10" style="6" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="3"/>
+    <col min="27" max="29" width="9.1328125" style="3"/>
     <col min="30" max="30" width="10" style="6" customWidth="1"/>
     <col min="31" max="48" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="3"/>
+    <col min="49" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:49" ht="13.9" x14ac:dyDescent="0.4">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>686.23000000000013</v>
       </c>
     </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>425.27</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:49" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1111.5</v>
       </c>
     </row>
-    <row r="15" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0.18780399148391136</v>
       </c>
     </row>
-    <row r="16" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.1783270067329803</v>
       </c>
     </row>
-    <row r="17" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.18416006136537955</v>
       </c>
     </row>
-    <row r="18" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>83</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.61350427350427361</v>
       </c>
     </row>
-    <row r="20" spans="2:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
@@ -3064,84 +3064,54 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="10" t="e">
-        <f t="shared" ref="C31:T31" si="12">C30/C32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="10">
-        <f t="shared" si="12"/>
-        <v>5.1125893629981078</v>
+        <v>62.386000000000003</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.6081363535949156</v>
-      </c>
-      <c r="J31" s="10" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>58.847000000000001</v>
+      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="10">
-        <f t="shared" si="12"/>
-        <v>1.1816498863267286</v>
+        <v>61.58</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.600324412003244</v>
+        <v>61.65</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.7426674224633576</v>
+        <v>61.744999999999997</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.2122070897637252</v>
+        <v>61.750999999999998</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.4110373069358024</v>
+        <v>62.026000000000003</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="12"/>
-        <v>3.5767449692683391</v>
+        <v>59.384999999999998</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.922928327306952</v>
+        <v>60.567</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" si="12"/>
-        <v>4.1914577100447854</v>
+        <v>60.499000000000002</v>
       </c>
       <c r="S31" s="10">
-        <f t="shared" si="12"/>
-        <v>2.5114574238505543</v>
+        <v>60.703000000000003</v>
       </c>
       <c r="T31" s="10">
-        <f t="shared" si="12"/>
-        <v>3.8546963930892826</v>
+        <v>59.386000000000003</v>
       </c>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
+      <c r="V31" s="10"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
@@ -3165,54 +3135,84 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C32" s="10" t="e">
+        <f>C30/C31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="10" t="e">
+        <f>D30/D31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="10" t="e">
+        <f>E30/E31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="10" t="e">
+        <f>F30/F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="10" t="e">
+        <f>G30/G31</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H32" s="10">
-        <v>62.386000000000003</v>
+        <f>H30/H31</f>
+        <v>5.1125893629981078</v>
       </c>
       <c r="I32" s="10">
-        <v>58.847000000000001</v>
-      </c>
-      <c r="J32" s="10"/>
+        <f>I30/I31</f>
+        <v>2.6081363535949156</v>
+      </c>
+      <c r="J32" s="10" t="e">
+        <f>J30/J31</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K32" s="10">
-        <v>61.58</v>
+        <f>K30/K31</f>
+        <v>1.1816498863267286</v>
       </c>
       <c r="L32" s="10">
-        <v>61.65</v>
+        <f>L30/L31</f>
+        <v>2.600324412003244</v>
       </c>
       <c r="M32" s="10">
-        <v>61.744999999999997</v>
+        <f>M30/M31</f>
+        <v>2.7426674224633576</v>
       </c>
       <c r="N32" s="10">
-        <v>61.750999999999998</v>
+        <f>N30/N31</f>
+        <v>2.2122070897637252</v>
       </c>
       <c r="O32" s="10">
-        <v>62.026000000000003</v>
+        <f>O30/O31</f>
+        <v>2.4110373069358024</v>
       </c>
       <c r="P32" s="10">
-        <v>59.384999999999998</v>
+        <f>P30/P31</f>
+        <v>3.5767449692683391</v>
       </c>
       <c r="Q32" s="10">
-        <v>60.567</v>
+        <f>Q30/Q31</f>
+        <v>2.922928327306952</v>
       </c>
       <c r="R32" s="10">
-        <v>60.499000000000002</v>
+        <f>R30/R31</f>
+        <v>4.1914577100447854</v>
       </c>
       <c r="S32" s="10">
-        <v>60.703000000000003</v>
+        <f>S30/S31</f>
+        <v>2.5114574238505543</v>
       </c>
       <c r="T32" s="10">
-        <v>59.386000000000003</v>
+        <f>T30/T31</f>
+        <v>3.8546963930892826</v>
       </c>
       <c r="U32" s="3"/>
-      <c r="V32" s="10"/>
+      <c r="V32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
@@ -3236,7 +3236,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.35">
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="X33" s="3"/>
@@ -3262,7 +3262,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
@@ -3488,32 +3488,32 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:S37" si="13">C35+C36</f>
+        <f t="shared" ref="C37:S37" si="12">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>233.26</v>
       </c>
       <c r="I37" s="10">
@@ -3525,23 +3525,23 @@
         <v>0</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>375.75</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>423.49</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>397.66</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>295.58699999999999</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>418.959</v>
       </c>
       <c r="P37" s="10">
@@ -3549,15 +3549,15 @@
         <v>409.59</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>391.20699999999999</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>305.75</v>
       </c>
       <c r="S37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>481.52</v>
       </c>
       <c r="T37" s="10">
@@ -3589,7 +3589,7 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -3953,32 +3953,32 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="10">
-        <f t="shared" ref="C43:R43" si="14">C41+C42</f>
+        <f t="shared" ref="C43:R43" si="13">C41+C42</f>
         <v>0</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43" s="10">
@@ -3990,35 +3990,35 @@
         <v>0</v>
       </c>
       <c r="K43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>135.65100000000001</v>
       </c>
       <c r="L43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>140.29000000000002</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>163.374</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>181.53000000000003</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>190.49199999999999</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>213.84000000000003</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>223.06</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>238.32</v>
       </c>
       <c r="S43" s="10">
@@ -4054,7 +4054,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -4201,32 +4201,32 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" ref="C46:R46" si="15">C44+C45</f>
+        <f t="shared" ref="C46:R46" si="14">C44+C45</f>
         <v>0</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I46" s="10">
@@ -4238,35 +4238,35 @@
         <v>0</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1895.98</v>
       </c>
       <c r="L46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1804.07</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1802.576</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1800.17</v>
       </c>
       <c r="O46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1798.92</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1795.88</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1793.7</v>
       </c>
       <c r="R46" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1792.56</v>
       </c>
       <c r="S46" s="10">
@@ -4302,7 +4302,7 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
@@ -4590,32 +4590,32 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" ref="C51:Q51" si="16">C34+C37+C38+C39+C40+C43+C46+C47+C48+C49+C50</f>
+        <f t="shared" ref="C51:Q51" si="15">C34+C37+C38+C39+C40+C43+C46+C47+C48+C49+C50</f>
         <v>0</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>432.58299999999997</v>
       </c>
       <c r="I51" s="11">
@@ -4627,15 +4627,15 @@
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4470.6710000000012</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4586.6509999999998</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4543.1679999999997</v>
       </c>
       <c r="N51" s="11">
@@ -4643,15 +4643,15 @@
         <v>4501.7950000000001</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4595.63</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4603.13</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4581.3590000000004</v>
       </c>
       <c r="R51" s="11">
@@ -4691,7 +4691,7 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4735,7 +4735,7 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>63</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
         <v>65</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>66</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5436,32 +5436,32 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="11">
-        <f t="shared" ref="C63:T63" si="17">SUM(C53:C62)</f>
+        <f t="shared" ref="C63:T63" si="16">SUM(C53:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I63" s="11">
@@ -5473,43 +5473,43 @@
         <v>0</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4470.67</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4586.652000000001</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4543.1610000000001</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4501.7980000000007</v>
       </c>
       <c r="O63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4595.643</v>
       </c>
       <c r="P63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4603.1400000000003</v>
       </c>
       <c r="Q63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4581.38</v>
       </c>
       <c r="R63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4643.8509999999997</v>
       </c>
       <c r="S63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4795.5600000000004</v>
       </c>
       <c r="T63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4719.8</v>
       </c>
       <c r="U63" s="3"/>
@@ -5552,7 +5552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CROX_Model.xlsx
+++ b/CROX_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CDB87-FB96-4D1C-AA93-E35500479342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92CF3F-34E1-4A71-B014-5ECCE5D33827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{07357E3F-CFA6-40CB-A646-8493286714AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07357E3F-CFA6-40CB-A646-8493286714AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -824,21 +824,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0343D7-8665-450D-BA62-EBBD45696BCC}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -852,7 +852,7 @@
         <v>45531</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -878,7 +878,7 @@
         <v>8273.7383499999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>82</v>
       </c>
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -927,28 +927,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13600B2B-6306-4A2E-94B5-6F6C4A6037E6}">
   <dimension ref="B2:AW63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="26" width="10" style="6" customWidth="1"/>
-    <col min="27" max="29" width="9.1328125" style="3"/>
+    <col min="27" max="29" width="9.140625" style="3"/>
     <col min="30" max="30" width="10" style="6" customWidth="1"/>
     <col min="31" max="48" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.1328125" style="3"/>
+    <col min="49" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:49" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>686.23000000000013</v>
       </c>
     </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>425.27</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" spans="2:49" s="5" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:49" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1111.5</v>
       </c>
     </row>
-    <row r="15" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0.18780399148391136</v>
       </c>
     </row>
-    <row r="16" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0.1783270067329803</v>
       </c>
     </row>
-    <row r="17" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.18416006136537955</v>
       </c>
     </row>
-    <row r="18" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:48" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>83</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.61350427350427361</v>
       </c>
     </row>
-    <row r="20" spans="2:48" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:48" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
@@ -3135,80 +3135,80 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="10" t="e">
-        <f>C30/C31</f>
+        <f t="shared" ref="C32:T32" si="12">C30/C31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="10" t="e">
-        <f>D30/D31</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="10" t="e">
-        <f>E30/E31</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="10" t="e">
-        <f>F30/F31</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="10" t="e">
-        <f>G30/G31</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="10">
-        <f>H30/H31</f>
+        <f t="shared" si="12"/>
         <v>5.1125893629981078</v>
       </c>
       <c r="I32" s="10">
-        <f>I30/I31</f>
+        <f t="shared" si="12"/>
         <v>2.6081363535949156</v>
       </c>
       <c r="J32" s="10" t="e">
-        <f>J30/J31</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="10">
-        <f>K30/K31</f>
+        <f t="shared" si="12"/>
         <v>1.1816498863267286</v>
       </c>
       <c r="L32" s="10">
-        <f>L30/L31</f>
+        <f t="shared" si="12"/>
         <v>2.600324412003244</v>
       </c>
       <c r="M32" s="10">
-        <f>M30/M31</f>
+        <f t="shared" si="12"/>
         <v>2.7426674224633576</v>
       </c>
       <c r="N32" s="10">
-        <f>N30/N31</f>
+        <f t="shared" si="12"/>
         <v>2.2122070897637252</v>
       </c>
       <c r="O32" s="10">
-        <f>O30/O31</f>
+        <f t="shared" si="12"/>
         <v>2.4110373069358024</v>
       </c>
       <c r="P32" s="10">
-        <f>P30/P31</f>
+        <f t="shared" si="12"/>
         <v>3.5767449692683391</v>
       </c>
       <c r="Q32" s="10">
-        <f>Q30/Q31</f>
+        <f t="shared" si="12"/>
         <v>2.922928327306952</v>
       </c>
       <c r="R32" s="10">
-        <f>R30/R31</f>
+        <f t="shared" si="12"/>
         <v>4.1914577100447854</v>
       </c>
       <c r="S32" s="10">
-        <f>S30/S31</f>
+        <f t="shared" si="12"/>
         <v>2.5114574238505543</v>
       </c>
       <c r="T32" s="10">
-        <f>T30/T31</f>
+        <f t="shared" si="12"/>
         <v>3.8546963930892826</v>
       </c>
       <c r="U32" s="3"/>
@@ -3236,7 +3236,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="X33" s="3"/>
@@ -3262,7 +3262,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>54</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
@@ -3488,32 +3488,32 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" ref="C37:S37" si="12">C35+C36</f>
+        <f t="shared" ref="C37:S37" si="13">C35+C36</f>
         <v>0</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>233.26</v>
       </c>
       <c r="I37" s="10">
@@ -3525,23 +3525,23 @@
         <v>0</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>375.75</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>423.49</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>397.66</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>295.58699999999999</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>418.959</v>
       </c>
       <c r="P37" s="10">
@@ -3549,15 +3549,15 @@
         <v>409.59</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>391.20699999999999</v>
       </c>
       <c r="R37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>305.75</v>
       </c>
       <c r="S37" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>481.52</v>
       </c>
       <c r="T37" s="10">
@@ -3589,7 +3589,7 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
@@ -3953,32 +3953,32 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="10">
-        <f t="shared" ref="C43:R43" si="13">C41+C42</f>
+        <f t="shared" ref="C43:R43" si="14">C41+C42</f>
         <v>0</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I43" s="10">
@@ -3990,35 +3990,35 @@
         <v>0</v>
       </c>
       <c r="K43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>135.65100000000001</v>
       </c>
       <c r="L43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>140.29000000000002</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>163.374</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>181.53000000000003</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>190.49199999999999</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>213.84000000000003</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>223.06</v>
       </c>
       <c r="R43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>238.32</v>
       </c>
       <c r="S43" s="10">
@@ -4054,7 +4054,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>76</v>
       </c>
@@ -4201,32 +4201,32 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" ref="C46:R46" si="14">C44+C45</f>
+        <f t="shared" ref="C46:R46" si="15">C44+C45</f>
         <v>0</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I46" s="10">
@@ -4238,35 +4238,35 @@
         <v>0</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1895.98</v>
       </c>
       <c r="L46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1804.07</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1802.576</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1800.17</v>
       </c>
       <c r="O46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1798.92</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1795.88</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1793.7</v>
       </c>
       <c r="R46" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1792.56</v>
       </c>
       <c r="S46" s="10">
@@ -4302,7 +4302,7 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>59</v>
       </c>
@@ -4590,32 +4590,32 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" ref="C51:Q51" si="15">C34+C37+C38+C39+C40+C43+C46+C47+C48+C49+C50</f>
+        <f t="shared" ref="C51:Q51" si="16">C34+C37+C38+C39+C40+C43+C46+C47+C48+C49+C50</f>
         <v>0</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>432.58299999999997</v>
       </c>
       <c r="I51" s="11">
@@ -4627,15 +4627,15 @@
         <v>0</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4470.6710000000012</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4586.6509999999998</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4543.1679999999997</v>
       </c>
       <c r="N51" s="11">
@@ -4643,15 +4643,15 @@
         <v>4501.7950000000001</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4595.63</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4603.13</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4581.3590000000004</v>
       </c>
       <c r="R51" s="11">
@@ -4691,7 +4691,7 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4735,7 +4735,7 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>61</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>63</v>
       </c>
@@ -4873,7 +4873,7 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>65</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>66</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
@@ -5436,32 +5436,32 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="11">
-        <f t="shared" ref="C63:T63" si="16">SUM(C53:C62)</f>
+        <f t="shared" ref="C63:T63" si="17">SUM(C53:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I63" s="11">
@@ -5473,43 +5473,43 @@
         <v>0</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4470.67</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4586.652000000001</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4543.1610000000001</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4501.7980000000007</v>
       </c>
       <c r="O63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4595.643</v>
       </c>
       <c r="P63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4603.1400000000003</v>
       </c>
       <c r="Q63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4581.38</v>
       </c>
       <c r="R63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4643.8509999999997</v>
       </c>
       <c r="S63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4795.5600000000004</v>
       </c>
       <c r="T63" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4719.8</v>
       </c>
       <c r="U63" s="3"/>
@@ -5552,7 +5552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
